--- a/routes.xlsx
+++ b/routes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>Stop ID</t>
   </si>
@@ -21,24 +21,6 @@
   <si>
     <t>Longitude</t>
   </si>
-  <si>
-    <t>41.404853</t>
-  </si>
-  <si>
-    <t>2.160998</t>
-  </si>
-  <si>
-    <t>41.376947</t>
-  </si>
-  <si>
-    <t>2.160944</t>
-  </si>
-  <si>
-    <t>41.402324</t>
-  </si>
-  <si>
-    <t>2.201554</t>
-  </si>
 </sst>
 </file>
 
@@ -47,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -69,8 +51,14 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,18 +73,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -109,40 +91,40 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -157,7 +139,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -169,7 +151,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -181,14 +163,61 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -196,7 +225,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -215,7 +244,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -225,37 +254,40 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -275,11 +307,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1311,228 +1342,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7188" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3203" style="1" customWidth="1"/>
+    <col min="4" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" ht="20.05" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" ht="20.05" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7">
+        <v>41.4056186</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2.1618671</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="9">
+        <v>41.371622</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2.1663419</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="9">
+        <v>41.3793195</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.1745932</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>41.3710342</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.16607</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>41.3720195</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2.1658932</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
